--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83509,7 +83509,7 @@
         <v>21</v>
       </c>
       <c r="O1483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1483" t="n">
         <v>0</v>
@@ -83688,6 +83688,114 @@
       <c r="R1486" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>1529.849975585938</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1460.900024414062</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1467.25</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>1467.25</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>11610539</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1475.050048828125</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>1538.949951171875</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1475.050048828125</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1520.849975585938</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>1520.849975585938</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>14638786</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
+++ b/stock_historical_data/1wk/SUNPHARMA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -5678,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -6182,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -7358,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -7918,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -8646,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -10382,7 +10382,7 @@
         <v>2</v>
       </c>
       <c r="R177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="R189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -12006,7 +12006,7 @@
         <v>2</v>
       </c>
       <c r="R206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -12678,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -13070,7 +13070,7 @@
         <v>2</v>
       </c>
       <c r="R225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -13966,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="R241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -15982,7 +15982,7 @@
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -16710,7 +16710,7 @@
         <v>2</v>
       </c>
       <c r="R290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="R295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="R306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -17998,7 +17998,7 @@
         <v>2</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -18558,7 +18558,7 @@
         <v>2</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -19174,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -20294,7 +20294,7 @@
         <v>1</v>
       </c>
       <c r="R354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -20518,7 +20518,7 @@
         <v>2</v>
       </c>
       <c r="R358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -21750,7 +21750,7 @@
         <v>2</v>
       </c>
       <c r="R380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -21862,7 +21862,7 @@
         <v>1</v>
       </c>
       <c r="R382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -22198,7 +22198,7 @@
         <v>2</v>
       </c>
       <c r="R388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="R391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -24102,7 +24102,7 @@
         <v>2</v>
       </c>
       <c r="R422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
       <c r="R426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -24662,7 +24662,7 @@
         <v>2</v>
       </c>
       <c r="R432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="R436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -25166,7 +25166,7 @@
         <v>2</v>
       </c>
       <c r="R441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -25782,7 +25782,7 @@
         <v>1</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -27350,7 +27350,7 @@
         <v>1</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -28862,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="R507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -29254,7 +29254,7 @@
         <v>2</v>
       </c>
       <c r="R514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -29982,7 +29982,7 @@
         <v>2</v>
       </c>
       <c r="R527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -30206,7 +30206,7 @@
         <v>1</v>
       </c>
       <c r="R531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -30430,7 +30430,7 @@
         <v>2</v>
       </c>
       <c r="R535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -30990,7 +30990,7 @@
         <v>2</v>
       </c>
       <c r="R545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -33230,7 +33230,7 @@
         <v>2</v>
       </c>
       <c r="R585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -33902,7 +33902,7 @@
         <v>2</v>
       </c>
       <c r="R597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="R600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -34238,7 +34238,7 @@
         <v>2</v>
       </c>
       <c r="R603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -34854,7 +34854,7 @@
         <v>1</v>
       </c>
       <c r="R614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -35078,7 +35078,7 @@
         <v>2</v>
       </c>
       <c r="R618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619">
@@ -35918,7 +35918,7 @@
         <v>2</v>
       </c>
       <c r="R633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634">
@@ -36534,7 +36534,7 @@
         <v>2</v>
       </c>
       <c r="R644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="R651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652">
@@ -37374,7 +37374,7 @@
         <v>1</v>
       </c>
       <c r="R659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -38438,7 +38438,7 @@
         <v>1</v>
       </c>
       <c r="R678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -39110,7 +39110,7 @@
         <v>2</v>
       </c>
       <c r="R690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691">
@@ -39390,7 +39390,7 @@
         <v>1</v>
       </c>
       <c r="R695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -40006,7 +40006,7 @@
         <v>2</v>
       </c>
       <c r="R706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707">
@@ -40286,7 +40286,7 @@
         <v>1</v>
       </c>
       <c r="R711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -41966,7 +41966,7 @@
         <v>1</v>
       </c>
       <c r="R741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44654,7 +44654,7 @@
         <v>1</v>
       </c>
       <c r="R789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790">
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -45046,7 +45046,7 @@
         <v>1</v>
       </c>
       <c r="R796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -45382,7 +45382,7 @@
         <v>2</v>
       </c>
       <c r="R802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803">
@@ -45774,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="R809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -46390,7 +46390,7 @@
         <v>2</v>
       </c>
       <c r="R820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -49918,7 +49918,7 @@
         <v>2</v>
       </c>
       <c r="R883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -50198,7 +50198,7 @@
         <v>1</v>
       </c>
       <c r="R888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -50478,7 +50478,7 @@
         <v>2</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -50758,7 +50758,7 @@
         <v>1</v>
       </c>
       <c r="R898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899">
@@ -51878,7 +51878,7 @@
         <v>1</v>
       </c>
       <c r="R918" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919">
@@ -52270,7 +52270,7 @@
         <v>2</v>
       </c>
       <c r="R925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926">
@@ -52438,7 +52438,7 @@
         <v>1</v>
       </c>
       <c r="R928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -53390,7 +53390,7 @@
         <v>1</v>
       </c>
       <c r="R945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -55462,7 +55462,7 @@
         <v>2</v>
       </c>
       <c r="R982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983">
@@ -55630,7 +55630,7 @@
         <v>1</v>
       </c>
       <c r="R985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986">
@@ -56022,7 +56022,7 @@
         <v>2</v>
       </c>
       <c r="R992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -56302,7 +56302,7 @@
         <v>1</v>
       </c>
       <c r="R997" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998">
@@ -57198,7 +57198,7 @@
         <v>2</v>
       </c>
       <c r="R1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -57702,7 +57702,7 @@
         <v>1</v>
       </c>
       <c r="R1022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023">
@@ -58262,7 +58262,7 @@
         <v>2</v>
       </c>
       <c r="R1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -58654,7 +58654,7 @@
         <v>2</v>
       </c>
       <c r="R1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -59046,7 +59046,7 @@
         <v>1</v>
       </c>
       <c r="R1046" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -59774,7 +59774,7 @@
         <v>2</v>
       </c>
       <c r="R1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -60054,7 +60054,7 @@
         <v>1</v>
       </c>
       <c r="R1064" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -60558,7 +60558,7 @@
         <v>2</v>
       </c>
       <c r="R1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074">
@@ -61062,7 +61062,7 @@
         <v>2</v>
       </c>
       <c r="R1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -61846,7 +61846,7 @@
         <v>1</v>
       </c>
       <c r="R1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -62182,7 +62182,7 @@
         <v>1</v>
       </c>
       <c r="R1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103">
@@ -62854,7 +62854,7 @@
         <v>2</v>
       </c>
       <c r="R1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -63470,7 +63470,7 @@
         <v>1</v>
       </c>
       <c r="R1125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -63862,7 +63862,7 @@
         <v>2</v>
       </c>
       <c r="R1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -64086,7 +64086,7 @@
         <v>1</v>
       </c>
       <c r="R1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
@@ -64702,7 +64702,7 @@
         <v>2</v>
       </c>
       <c r="R1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148">
@@ -64814,7 +64814,7 @@
         <v>1</v>
       </c>
       <c r="R1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -65542,7 +65542,7 @@
         <v>2</v>
       </c>
       <c r="R1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163">
@@ -65878,7 +65878,7 @@
         <v>1</v>
       </c>
       <c r="R1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -66158,7 +66158,7 @@
         <v>2</v>
       </c>
       <c r="R1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -66326,7 +66326,7 @@
         <v>1</v>
       </c>
       <c r="R1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -66606,7 +66606,7 @@
         <v>2</v>
       </c>
       <c r="R1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -68846,7 +68846,7 @@
         <v>2</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -69630,7 +69630,7 @@
         <v>1</v>
       </c>
       <c r="R1235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236">
@@ -70078,7 +70078,7 @@
         <v>2</v>
       </c>
       <c r="R1243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244">
@@ -70358,7 +70358,7 @@
         <v>1</v>
       </c>
       <c r="R1248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249">
@@ -70750,7 +70750,7 @@
         <v>2</v>
       </c>
       <c r="R1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -71254,7 +71254,7 @@
         <v>2</v>
       </c>
       <c r="R1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
@@ -71758,7 +71758,7 @@
         <v>1</v>
       </c>
       <c r="R1273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -72150,7 +72150,7 @@
         <v>1</v>
       </c>
       <c r="R1280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -72318,7 +72318,7 @@
         <v>2</v>
       </c>
       <c r="R1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -73438,7 +73438,7 @@
         <v>1</v>
       </c>
       <c r="R1303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304">
@@ -74278,7 +74278,7 @@
         <v>2</v>
       </c>
       <c r="R1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319">
@@ -74558,7 +74558,7 @@
         <v>1</v>
       </c>
       <c r="R1323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -75006,7 +75006,7 @@
         <v>2</v>
       </c>
       <c r="R1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332">
@@ -75286,7 +75286,7 @@
         <v>1</v>
       </c>
       <c r="R1336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -75678,7 +75678,7 @@
         <v>2</v>
       </c>
       <c r="R1343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1344">
@@ -76294,7 +76294,7 @@
         <v>2</v>
       </c>
       <c r="R1354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -76686,7 +76686,7 @@
         <v>1</v>
       </c>
       <c r="R1361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1362">
@@ -77414,7 +77414,7 @@
         <v>1</v>
       </c>
       <c r="R1374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -77806,7 +77806,7 @@
         <v>2</v>
       </c>
       <c r="R1381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -78198,7 +78198,7 @@
         <v>1</v>
       </c>
       <c r="R1388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -78534,7 +78534,7 @@
         <v>2</v>
       </c>
       <c r="R1394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -78982,7 +78982,7 @@
         <v>1</v>
       </c>
       <c r="R1402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403">
@@ -79318,7 +79318,7 @@
         <v>2</v>
       </c>
       <c r="R1408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -79710,7 +79710,7 @@
         <v>1</v>
       </c>
       <c r="R1415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -80326,7 +80326,7 @@
         <v>1</v>
       </c>
       <c r="R1426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -80886,7 +80886,7 @@
         <v>1</v>
       </c>
       <c r="R1436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437">
@@ -81502,7 +81502,7 @@
         <v>2</v>
       </c>
       <c r="R1447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1448">
@@ -82230,7 +82230,7 @@
         <v>1</v>
       </c>
       <c r="R1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83800,6 +83800,2034 @@
       <c r="R1488" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1506.960505556226</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>1560.36827709478</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1484.616520565782</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1554.076293945312</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>8960878</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1556.256136137764</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1587.864826771296</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1535.646169149839</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1562.89501953125</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>7647098</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1570.485163537083</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>1587.03544495291</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1555.773896653382</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1559.2529296875</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>4836256</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1545.734455757766</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>1713.473551747436</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1545.734455757766</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1703.980712890625</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>15173432</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1704.974710001504</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>1735.987756322057</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1671.228137692025</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1721.276489257812</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>14558757</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1714.666317120556</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>1747.468629274167</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1693.742369468771</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1724.904663085938</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>12029945</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1724.606363430305</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>1742.498533195</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1715.2626505076</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1732.309936523438</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>7991719</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1742.349463707122</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>1770.778110093438</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1730.222596788883</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1765.1123046875</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>9199282</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1769.336787608515</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>1817.198365990565</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1753.929641424284</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1810.7373046875</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>10175642</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1818.987549089519</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>1838.917487148011</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1790.509275346273</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1813.619995117188</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>9844165</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1813.619992101763</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>1860.288687284011</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1801.990008723278</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1842.64501953125</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>8773755</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1850.845584702239</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>1862.127567623674</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1818.639654449279</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1854.573120117188</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>9130836</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1855.815601346801</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>1947.562720050768</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1844.881497643098</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1937.026123046875</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>10560181</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1937.32440741529</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>1948.60639034305</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1884.691655862328</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1898.607788085938</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>9174523</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1898.607725651015</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>1935.336324883475</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1872.614355263175</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1890.55615234375</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>9001191</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1891.599938771547</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>1912.126257698122</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1861.481404610719</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1898.905883789062</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>6112748</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1907.305300649455</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>1909.044817113495</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1818.490462971401</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1849.255126953125</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>7414644</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1852.038384537186</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>1911.181947637139</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1809.097224233847</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1847.267211914062</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>9321997</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>1833.947356704825</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>1833.947356704825</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1749.555933746372</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1798.759399414062</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>12303834</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>1806.512758531045</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>1814.067205915267</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1752.587747067536</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1757.607421875</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>6825227</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>1788.222952345867</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>1804.077354110371</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>1719.636302144719</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1784.545166015625</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>6901503</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>1795.181058120452</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>1819.037284806438</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1713.075902210658</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>1770.2314453125</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>12209312</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>1789.217042215693</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>1821.025345188417</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1764.764433573222</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>1794.037963867188</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>10144872</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>1803.928313476498</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>1815.409049280121</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>1763.422430295795</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>1802.586303710938</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>7791265</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>1807.804884539807</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>1818.440858142653</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>1772.418173437579</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1798.013916015625</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>9261863</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>1800.151122554986</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>1854.821642566319</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1785.887111147111</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1850.10009765625</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>5491843</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>1850.89532136918</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>1898.558025354907</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1832.95340248924</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1838.569580078125</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>13227634</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>1839.414401512829</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>1853.827537866213</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1762.130170376584</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1774.108032226562</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>6368569</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1773.909264991985</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>1781.215210283774</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1730.371723276989</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>1775.84765625</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>7810281</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>1778.630750025906</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>1832.058756910131</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1748.95959279615</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>1811.283935546875</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>9345478</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1807.208523737244</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>1813.32170601079</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>1682.957344758843</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1731.76318359375</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>16630040</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>1770.778050409422</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>1775.201465176026</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1700.302878898768</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1739.317749023438</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>11587766</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1741.25</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>1752.75</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>1700.5</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>10648561</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1700.5</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>1735.349975585938</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1643.75</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>10933285</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>1629.75</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>1586.400024414062</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1593.25</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>11488626</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>1585.300048828125</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1553.050048828125</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>1609.300048828125</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>9010364</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1621.949951171875</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>1687.150024414062</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>1602.75</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>1683.449951171875</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>8982296</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>1694.050048828125</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>1792.800048828125</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>1688.349975585938</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>1784.5</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>8841250</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1705.199951171875</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>1734.699951171875</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>9652135</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
